--- a/config/ws.xlsx
+++ b/config/ws.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
   <si>
     <t>商户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,14 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开户许可证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +457,50 @@
   </si>
   <si>
     <t>个人和个体为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bg_image\\image_yyzz.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\liantuo\python\image\bw_image\image_yyzz.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bg_image\\image_sfrxm.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bw_image\\image_xk.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bw_image\\image_sfrxm.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bg_image\\image_sfghm.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bw_image\\image_sfghm.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bg_image\\image_mtz.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bw_image\\image_mtz.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bg_image\\image_dnhj.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bw_image\\image_dnhj.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,8 +873,8 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="A1:AI6"/>
+      <pane xSplit="3" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,26 +904,28 @@
     <col min="25" max="25" width="28.75" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="28.75" style="1" customWidth="1"/>
     <col min="27" max="27" width="42.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="42.625" style="1" customWidth="1"/>
-    <col min="30" max="34" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="58.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="52.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="53.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -905,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>28</v>
@@ -920,171 +958,171 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1122,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>31</v>
@@ -1140,7 +1178,7 @@
         <v>31</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>32</v>
@@ -1152,25 +1190,25 @@
         <v>31</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>31</v>
@@ -1192,6 +1230,9 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>18</v>
@@ -1226,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R4" s="1">
         <v>18330389005</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>23</v>
@@ -1241,27 +1282,27 @@
         <v>24</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -1282,7 +1323,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>17</v>
@@ -1300,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R5" s="1">
         <v>18330389005</v>
@@ -1315,33 +1356,33 @@
         <v>24</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1353,16 +1394,16 @@
         <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>18</v>
@@ -1374,43 +1415,43 @@
         <v>20</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="Z6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">

--- a/config/ws.xlsx
+++ b/config/ws.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网商" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="251">
   <si>
     <t>商户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,22 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dls_loginName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dls_loginPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shoptype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +589,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>客服电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户支行名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对公账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人身份证号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊资质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持卡人身份证号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行预留手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noSelcetPassTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noSelcetAlipayRateName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noSelcetWechatRateName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configureRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullNameCn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameCn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class：tradechoisecont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noSelectBusinessLicenseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath：/html/body/div[1]/form[3]/div[4]/div/div[18]/div[1]/div[1]/div/a/label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file7</t>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填页面默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦皇岛经济技术开发区宾果餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾果餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账户信息：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦皇岛市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行股份有限公司秦皇岛和平大街支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6222620420002728305 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13030219721006082X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bg_image\\image_yyzz.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bg_image\\image_sfrxm.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bg_image\\image_sfghm.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\liantuo\\python\\image\\bw_image\\image_xk.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csdls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111qqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW_N7195393694</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON250-客商普通通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON250-客商普通通道-支付宝千3.8-3.8‰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON250-客商普通通道-微信千3.8-3.8‰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW_N8535945430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商户简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,15 +860,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客服电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照类型</t>
+    <t>餐饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4564564564654</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4564654564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92130301MA0829LC1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessLicenseNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -629,6 +892,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>contactPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>联系人电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,71 +916,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户支行名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对公账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人身份证号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户人</t>
+    <t>xpath：//*[@id="province"]/a/label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath：//*[@id="city"]/a/label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath：//*[@id="country"]/a/label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noSelectAccountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/form[3]/div[4]/div/div[18]/div[1]/div[2]/div/a/label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subbranchName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountHolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalPersonName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小店区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18330389005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -713,289 +988,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>file1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>法人身份证照片(人像)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>file2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>法人身份证照片(国徽)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>file3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>开户许可证照片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊资质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持卡人身份证号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行预留手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noSelectAccountType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configureName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noSelcetPassTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noSelcetAlipayRateName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noSelcetWechatRateName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configureRemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullNameCn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nameCn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class：tradechoisecont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath：/html/body/div[1]/form[3]/div[4]/div/div[7]/div[1]/div[1]/div/a/label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath：/html/body/div[1]/form[3]/div[4]/div/div[7]/div[1]/div[2]/div/a/label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath：/html/body/div[1]/form[3]/div[4]/div/div[7]/div[1]/div[3]/div/a/label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noSelectBusinessLicenseType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessLicenseNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contactPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contactEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath：/html/body/div[1]/form[3]/div[4]/div/div[18]/div[1]/div[1]/div/a/label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/form[3]/div[4]/div/div[18]/div[1]/div[2]/div/a/label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subbranchName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountHolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalPersonName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>certNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file2</t>
-  </si>
-  <si>
-    <t>file3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file7</t>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必填</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填页面默认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦皇岛经济技术开发区宾果餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾果餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐饮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92130301MA0829LC1T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账户信息：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦皇岛市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行股份有限公司秦皇岛和平大街支行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6222620420002728305 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13030219721006082X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\\liantuo\\python\\image\\bg_image\\image_yyzz.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\\liantuo\\python\\image\\bg_image\\image_sfrxm.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\\liantuo\\python\\image\\bg_image\\image_sfghm.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\\liantuo\\python\\image\\bw_image\\image_xk.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csdls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111qqq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW_N7195393694</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON250-客商普通通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON250-客商普通通道-支付宝千3.8-3.8‰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON250-客商普通通道-微信千3.8-3.8‰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW_N8535945430</t>
+    <t>二选一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,13 +1037,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1046,19 +1060,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1085,30 +1100,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,16 +1429,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5:J5"/>
+      <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
     <col min="4" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -1459,360 +1471,348 @@
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:38" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:38" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="N2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="O2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="P2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="Q2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="R2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="S2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="U2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="V2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="W2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="X2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="Y2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Z2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="AA2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="AB2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AC2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AD2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AE2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AF2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AG2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AH2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AI2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AK2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AL2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AI2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:38" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="H3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="L3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="AA3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="AC3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="AH3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="AI3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>111</v>
+      <c r="AK3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>5</v>
@@ -1833,10 +1833,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>12</v>
@@ -1869,13 +1869,13 @@
         <v>13</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>39</v>
@@ -1883,16 +1883,16 @@
     </row>
     <row r="5" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -1901,13 +1901,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>6</v>
@@ -1916,13 +1916,13 @@
         <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>8</v>
@@ -1931,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>12</v>
@@ -1955,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>34</v>
@@ -1964,7 +1964,7 @@
         <v>37</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>39</v>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -1990,13 +1990,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>21</v>
@@ -2008,7 +2008,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>8</v>
@@ -2017,13 +2017,13 @@
         <v>9</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>32</v>
@@ -2032,16 +2032,16 @@
         <v>24</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>36</v>
@@ -2050,21 +2050,21 @@
         <v>38</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>41</v>
@@ -2073,13 +2073,13 @@
         <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>6</v>
@@ -2088,10 +2088,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>8</v>
@@ -2100,7 +2100,7 @@
         <v>9</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>12</v>
@@ -2130,7 +2130,7 @@
         <v>37</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>39</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="8" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -2153,13 +2153,13 @@
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>6</v>
@@ -2168,13 +2168,13 @@
         <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>8</v>
@@ -2183,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>12</v>
@@ -2207,7 +2207,7 @@
         <v>13</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>34</v>
@@ -2216,7 +2216,7 @@
         <v>37</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>39</v>
@@ -2224,31 +2224,31 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>21</v>
@@ -2260,7 +2260,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>8</v>
@@ -2269,13 +2269,13 @@
         <v>9</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>32</v>
@@ -2284,13 +2284,13 @@
         <v>24</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>35</v>
@@ -2302,39 +2302,39 @@
         <v>38</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>21</v>
@@ -2346,7 +2346,7 @@
         <v>23</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>8</v>
@@ -2355,13 +2355,13 @@
         <v>9</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>32</v>
@@ -2370,13 +2370,13 @@
         <v>24</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>35</v>
@@ -2388,10 +2388,10 @@
         <v>38</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.15">
@@ -2410,538 +2410,570 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="21" max="21" width="9" style="1"/>
+    <col min="37" max="37" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:44" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="AB3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AF3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AL1" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="9" t="s">
+      <c r="AM3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>218</v>
+      <c r="AQ3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N4" t="s">
+        <v>211</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L4" t="s">
-        <v>220</v>
-      </c>
-      <c r="M4" t="s">
-        <v>221</v>
-      </c>
-      <c r="N4" t="s">
-        <v>222</v>
-      </c>
-      <c r="O4">
-        <v>45456456</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z4" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="AG4" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="AJ4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>18330389005</v>
+        <v>193</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="AL4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="AM4" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="AN4" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
       <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" t="s">
+        <v>212</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" t="s">
-        <v>243</v>
-      </c>
-      <c r="J5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" t="s">
-        <v>220</v>
-      </c>
-      <c r="M5" t="s">
-        <v>221</v>
-      </c>
-      <c r="N5" t="s">
-        <v>222</v>
-      </c>
-      <c r="O5">
-        <v>45456456</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z5" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="AA5" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="AB5" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="AC5" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="AH5" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="AI5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK5" s="1"/>
+        <v>193</v>
+      </c>
       <c r="AL5" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="AM5" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="AN5" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="AO5" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>